--- a/UI_PV_baidu_jianshu.xlsx
+++ b/UI_PV_baidu_jianshu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jarthong\ZBG_PV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jarthong\zbg_pseo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>https://zhidao.baidu.com/question/461752961124522205.html</t>
   </si>
@@ -1083,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
@@ -1094,10 +1094,11 @@
     <col min="1" max="1" width="77.17578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="26.8203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.5859375" customWidth="1"/>
+    <col min="4" max="4" width="16.41015625" customWidth="1"/>
     <col min="5" max="5" width="23.17578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -1116,50 +1117,55 @@
         <v>10000</v>
       </c>
       <c r="C2" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.7" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="28.7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.7" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -1172,9 +1178,10 @@
     <hyperlink ref="A10" r:id="rId7"/>
     <hyperlink ref="A4" r:id="rId8"/>
     <hyperlink ref="A5" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
